--- a/docs/Lunar_TestCases.xlsx
+++ b/docs/Lunar_TestCases.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Калина Нончева\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Калина Нончева\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0A682D76-5815-4D0A-BD18-6EF92BE18030}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75A0B439-F8BB-4464-922B-F3A04B036417}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{A318E8DC-3BAF-461E-927A-906EB1266462}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{A318E8DC-3BAF-461E-927A-906EB1266462}"/>
   </bookViews>
   <sheets>
     <sheet name="BackEnd.cpp" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="43">
   <si>
     <t>Details</t>
   </si>
@@ -106,9 +106,6 @@
     <t>08.02.2022 17:25</t>
   </si>
   <si>
-    <t>08.02.2022 17:30</t>
-  </si>
-  <si>
     <t>Test_02</t>
   </si>
   <si>
@@ -127,7 +124,46 @@
     <t>To display the table</t>
   </si>
   <si>
-    <t>08.02.2022 17:40</t>
+    <t>Test_03</t>
+  </si>
+  <si>
+    <t>Entering data</t>
+  </si>
+  <si>
+    <t>To start the application</t>
+  </si>
+  <si>
+    <t>08.02.2022 18:15</t>
+  </si>
+  <si>
+    <t>08.02.2022 18:19</t>
+  </si>
+  <si>
+    <t>08.02.2022 18:20</t>
+  </si>
+  <si>
+    <t>void innitDataBase()</t>
+  </si>
+  <si>
+    <t>Prints the table</t>
+  </si>
+  <si>
+    <t>08.02.2022 18:26</t>
+  </si>
+  <si>
+    <t>08.02.2022 18:27</t>
+  </si>
+  <si>
+    <t>Test_04</t>
+  </si>
+  <si>
+    <t>void getInput()</t>
+  </si>
+  <si>
+    <t>Prints the data</t>
+  </si>
+  <si>
+    <t>08.02.2022 18:33</t>
   </si>
 </sst>
 </file>
@@ -184,7 +220,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -292,34 +328,29 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -329,31 +360,18 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -363,73 +381,98 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="22">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
+  <dxfs count="44">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
       </border>
     </dxf>
     <dxf>
@@ -440,55 +483,81 @@
         </patternFill>
       </fill>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
       </border>
     </dxf>
     <dxf>
@@ -548,24 +617,595 @@
           <bgColor theme="9" tint="0.59999389629810485"/>
         </patternFill>
       </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
         <bottom/>
       </border>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -573,92 +1213,11 @@
         <right style="thin">
           <color indexed="64"/>
         </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
+        <top/>
         <bottom/>
       </border>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
       <border outline="0">
         <top style="thin">
           <color indexed="64"/>
@@ -667,34 +1226,34 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <border outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <border diagonalUp="0" diagonalDown="0" outline="0">
@@ -722,30 +1281,60 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B9F71E2B-DA9D-4B54-B8CF-56700481CF89}" name="Table61236" displayName="Table61236" ref="B9:G10" totalsRowShown="0" headerRowDxfId="21" dataDxfId="20" headerRowBorderDxfId="18" tableBorderDxfId="19" totalsRowBorderDxfId="17">
-  <autoFilter ref="B9:G10" xr:uid="{B9F71E2B-DA9D-4B54-B8CF-56700481CF89}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B9F71E2B-DA9D-4B54-B8CF-56700481CF89}" name="Table61236" displayName="Table61236" ref="B9:G11" totalsRowShown="0" headerRowDxfId="43" dataDxfId="41" headerRowBorderDxfId="42" tableBorderDxfId="40" totalsRowBorderDxfId="39">
+  <autoFilter ref="B9:G11" xr:uid="{B9F71E2B-DA9D-4B54-B8CF-56700481CF89}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{BD57BFEE-7983-4540-BF08-43D68694351D}" name="Number step" dataDxfId="16"/>
-    <tableColumn id="2" xr3:uid="{9725D7AE-CE45-4E44-B51C-18555BDAA650}" name="Description" dataDxfId="15"/>
-    <tableColumn id="3" xr3:uid="{C5E64368-8DC2-4CEC-8CFB-CEA2C550C4AB}" name="Test Data" dataDxfId="14"/>
-    <tableColumn id="4" xr3:uid="{E3563205-2093-4C29-B589-AEBFF4499DBD}" name="Expectations" dataDxfId="13"/>
-    <tableColumn id="5" xr3:uid="{64061350-3BB4-433A-9388-94A0D456A241}" name="Actual Result" dataDxfId="12"/>
-    <tableColumn id="6" xr3:uid="{BC3CD63A-5C6B-4286-9F5E-9038D9F6ECDA}" name="Status" dataDxfId="11"/>
+    <tableColumn id="1" xr3:uid="{BD57BFEE-7983-4540-BF08-43D68694351D}" name="Number step" dataDxfId="30"/>
+    <tableColumn id="2" xr3:uid="{9725D7AE-CE45-4E44-B51C-18555BDAA650}" name="Description" dataDxfId="29"/>
+    <tableColumn id="3" xr3:uid="{C5E64368-8DC2-4CEC-8CFB-CEA2C550C4AB}" name="Test Data" dataDxfId="28"/>
+    <tableColumn id="4" xr3:uid="{E3563205-2093-4C29-B589-AEBFF4499DBD}" name="Expectations" dataDxfId="27"/>
+    <tableColumn id="5" xr3:uid="{64061350-3BB4-433A-9388-94A0D456A241}" name="Actual Result" dataDxfId="26"/>
+    <tableColumn id="6" xr3:uid="{BC3CD63A-5C6B-4286-9F5E-9038D9F6ECDA}" name="Status" dataDxfId="25"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{D6F87464-5784-4F49-81E1-BF7B456FC07E}" name="Table612363" displayName="Table612363" ref="B21:G22" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9" headerRowBorderDxfId="7" tableBorderDxfId="8" totalsRowBorderDxfId="6">
-  <autoFilter ref="B21:G22" xr:uid="{D6F87464-5784-4F49-81E1-BF7B456FC07E}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{D6F87464-5784-4F49-81E1-BF7B456FC07E}" name="Table612363" displayName="Table612363" ref="B21:G23" totalsRowShown="0" headerRowDxfId="38" dataDxfId="24" headerRowBorderDxfId="37" tableBorderDxfId="36" totalsRowBorderDxfId="35">
+  <autoFilter ref="B21:G23" xr:uid="{D6F87464-5784-4F49-81E1-BF7B456FC07E}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{24DE775F-8DA4-45D2-BBEF-D6D3F224111B}" name="Number step" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{B94882E8-FD71-4F17-8E34-C558E4C86B40}" name="Description" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{29C4BA4F-0DF0-4602-B471-0406C4989A78}" name="Test Data" dataDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{2C15706E-BAC2-41A3-9229-FCDF2BF0801D}" name="Expectations" dataDxfId="2"/>
-    <tableColumn id="5" xr3:uid="{69620B87-58D0-47E2-B934-CB83F1952D9E}" name="Actual Result" dataDxfId="1"/>
-    <tableColumn id="6" xr3:uid="{23662DE0-FFA1-48FD-81A4-1E5EABE272E7}" name="Status" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{24DE775F-8DA4-45D2-BBEF-D6D3F224111B}" name="Number step" dataDxfId="23"/>
+    <tableColumn id="2" xr3:uid="{B94882E8-FD71-4F17-8E34-C558E4C86B40}" name="Description" dataDxfId="22"/>
+    <tableColumn id="3" xr3:uid="{29C4BA4F-0DF0-4602-B471-0406C4989A78}" name="Test Data" dataDxfId="21"/>
+    <tableColumn id="4" xr3:uid="{2C15706E-BAC2-41A3-9229-FCDF2BF0801D}" name="Expectations" dataDxfId="20"/>
+    <tableColumn id="5" xr3:uid="{69620B87-58D0-47E2-B934-CB83F1952D9E}" name="Actual Result" dataDxfId="19"/>
+    <tableColumn id="6" xr3:uid="{23662DE0-FFA1-48FD-81A4-1E5EABE272E7}" name="Status" dataDxfId="18"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{27D12283-894D-4D26-A211-E0B8838CD628}" name="Table612364" displayName="Table612364" ref="B9:G10" totalsRowShown="0" headerRowDxfId="34" dataDxfId="17" headerRowBorderDxfId="32" tableBorderDxfId="33" totalsRowBorderDxfId="31">
+  <autoFilter ref="B9:G10" xr:uid="{27D12283-894D-4D26-A211-E0B8838CD628}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{3DB24851-BB6B-464F-A32F-BC92B2F894D7}" name="Number step" dataDxfId="16"/>
+    <tableColumn id="2" xr3:uid="{43178B2C-34E5-4FD0-80D4-EBCDD2571296}" name="Description" dataDxfId="15"/>
+    <tableColumn id="3" xr3:uid="{A69FAC80-028C-4625-AF8F-396D21CF8822}" name="Test Data" dataDxfId="14"/>
+    <tableColumn id="4" xr3:uid="{C0EFBA6B-5795-4C03-8F1E-3B3C4449EA83}" name="Expectations" dataDxfId="13"/>
+    <tableColumn id="5" xr3:uid="{9F48AF64-9EC9-4228-9947-A83BF5ABBEFF}" name="Actual Result" dataDxfId="12"/>
+    <tableColumn id="6" xr3:uid="{E003AABE-EA3F-4D09-AA73-E01B99659797}" name="Status" dataDxfId="11"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{8958A56D-A901-447B-891C-ABE52675C5ED}" name="Table6123645" displayName="Table6123645" ref="B20:G21" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9" headerRowBorderDxfId="7" tableBorderDxfId="8" totalsRowBorderDxfId="6">
+  <autoFilter ref="B20:G21" xr:uid="{8958A56D-A901-447B-891C-ABE52675C5ED}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{7610045E-A0EF-48A5-86D1-C57525AF259C}" name="Number step" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{2514890D-7A95-4269-AE53-2C0177E90674}" name="Description" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{1F79A521-910E-4F2E-904F-09DEF3D8DA7E}" name="Test Data" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{BBE97B07-9EDD-4671-BB13-C07C230D37FF}" name="Expectations" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{0556EDEC-FE49-4454-B2D2-F548235A7CFD}" name="Actual Result" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{92C69008-99E4-4E97-B533-3869B55B0725}" name="Status" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1048,10 +1637,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60EAFFD2-E5C7-4345-962D-A94815B4D10B}">
-  <dimension ref="B2:G22"/>
+  <dimension ref="B2:G23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1065,63 +1654,63 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="3"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="12"/>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="21" t="s">
+      <c r="D3" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B4" s="20" t="s">
+      <c r="B4" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="21" t="s">
+      <c r="D4" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="2" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="21" t="s">
+      <c r="D5" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B6" s="8"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="21" t="s">
+      <c r="B6" s="14"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="5" t="s">
-        <v>23</v>
+      <c r="E6" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.3">
@@ -1135,103 +1724,121 @@
       <c r="G8" s="19"/>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C9" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="11" t="s">
+      <c r="D9" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E9" s="11" t="s">
+      <c r="E9" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F9" s="11" t="s">
+      <c r="F9" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="G9" s="12" t="s">
+      <c r="G9" s="5" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B10" s="13">
+      <c r="B10" s="20">
         <v>1</v>
       </c>
-      <c r="C10" s="14" t="s">
+      <c r="C10" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="15" t="s">
+      <c r="D10" s="21"/>
+      <c r="E10" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="F10" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="G10" s="20" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B11" s="6">
+        <v>2</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B14" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="12"/>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B15" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B16" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B17" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="E10" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="F10" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="G10" s="16" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B14" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="3"/>
-    </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B15" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="E15" s="4" t="s">
+      <c r="D17" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E17" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B16" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" s="21" t="s">
-        <v>5</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B17" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="D17" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B18" s="8"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="21" t="s">
+      <c r="B18" s="14"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="E18" s="5" t="s">
-        <v>30</v>
+      <c r="E18" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.3">
@@ -1245,53 +1852,73 @@
       <c r="G20" s="19"/>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B21" s="10" t="s">
+      <c r="B21" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C21" s="11" t="s">
+      <c r="C21" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D21" s="11" t="s">
+      <c r="D21" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E21" s="11" t="s">
+      <c r="E21" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F21" s="11" t="s">
+      <c r="F21" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="G21" s="12" t="s">
+      <c r="G21" s="5" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B22" s="13">
+      <c r="B22" s="20">
         <v>1</v>
       </c>
-      <c r="C22" s="14" t="s">
+      <c r="C22" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="D22" s="15">
+      <c r="D22" s="21"/>
+      <c r="E22" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="F22" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="G22" s="20" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B23" s="6">
+        <v>2</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D23" s="21">
         <v>10</v>
       </c>
-      <c r="E22" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="F22" s="14" t="s">
+      <c r="E23" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="F23" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="G22" s="16" t="s">
+      <c r="G23" s="20" t="s">
         <v>18</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="8">
+    <mergeCell ref="B20:G20"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="C5:C6"/>
     <mergeCell ref="B14:E14"/>
     <mergeCell ref="B17:B18"/>
     <mergeCell ref="C17:C18"/>
+    <mergeCell ref="B8:G8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="2">
@@ -1303,14 +1930,261 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90314F01-8834-412D-B03D-FB1C47125FBB}">
-  <dimension ref="A1"/>
+  <dimension ref="B2:G21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="42.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B2" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="12"/>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B3" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B4" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B5" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B6" s="14"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B8" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="19"/>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B9" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B10" s="6">
+        <v>1</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="7"/>
+      <c r="E10" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B11" s="22"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="22"/>
+      <c r="G11" s="22"/>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B13" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="12"/>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B14" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B15" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B16" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B17" s="14"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B19" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" s="18"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="19"/>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B20" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B21" s="6">
+        <v>1</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D21" s="7"/>
+      <c r="E21" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G21" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="B19:G19"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="B8:G8"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="C16:C17"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="2">
+    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/docs/Lunar_TestCases.xlsx
+++ b/docs/Lunar_TestCases.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Калина Нончева\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75A0B439-F8BB-4464-922B-F3A04B036417}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8429A0C-B631-44DC-B01E-3AA05687236B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{A318E8DC-3BAF-461E-927A-906EB1266462}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{A318E8DC-3BAF-461E-927A-906EB1266462}"/>
   </bookViews>
   <sheets>
     <sheet name="BackEnd.cpp" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="100">
   <si>
     <t>Details</t>
   </si>
@@ -133,9 +133,6 @@
     <t>To start the application</t>
   </si>
   <si>
-    <t>08.02.2022 18:15</t>
-  </si>
-  <si>
     <t>08.02.2022 18:19</t>
   </si>
   <si>
@@ -164,13 +161,187 @@
   </si>
   <si>
     <t>08.02.2022 18:33</t>
+  </si>
+  <si>
+    <t>13.02.2022 14:27</t>
+  </si>
+  <si>
+    <t>void getEventInput()</t>
+  </si>
+  <si>
+    <t>Test_05</t>
+  </si>
+  <si>
+    <t>Test_06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Collects the data </t>
+  </si>
+  <si>
+    <t>Prints the log in form</t>
+  </si>
+  <si>
+    <t>13.02.2022 14:33</t>
+  </si>
+  <si>
+    <t>13.02.2022 14:38</t>
+  </si>
+  <si>
+    <t>void printLogIn()</t>
+  </si>
+  <si>
+    <t>13.02.2022 14:39</t>
+  </si>
+  <si>
+    <t>Test_07</t>
+  </si>
+  <si>
+    <t>bool check()</t>
+  </si>
+  <si>
+    <t>Entering the data</t>
+  </si>
+  <si>
+    <t>KPNoncheva19 12893</t>
+  </si>
+  <si>
+    <t>To check the data</t>
+  </si>
+  <si>
+    <t>Test_08</t>
+  </si>
+  <si>
+    <t>void gotoxy()</t>
+  </si>
+  <si>
+    <t>13.02.2022 14:45</t>
+  </si>
+  <si>
+    <t>13.02.2022 14:46</t>
+  </si>
+  <si>
+    <t>10 15</t>
+  </si>
+  <si>
+    <t>To go to the given coordinates</t>
+  </si>
+  <si>
+    <t>Goes to the given coordinates</t>
+  </si>
+  <si>
+    <t>Checks username and password</t>
+  </si>
+  <si>
+    <t>13.02.2022 14:50</t>
+  </si>
+  <si>
+    <t>void addNode()</t>
+  </si>
+  <si>
+    <t>13.02.2022 14:56</t>
+  </si>
+  <si>
+    <t>void readData()</t>
+  </si>
+  <si>
+    <t>13.02.2022 15:01</t>
+  </si>
+  <si>
+    <t>void writeData()</t>
+  </si>
+  <si>
+    <t>Goes through the data</t>
+  </si>
+  <si>
+    <t>Writes the data down</t>
+  </si>
+  <si>
+    <t>13.02.2022 15:05</t>
+  </si>
+  <si>
+    <t>Adds the data to the event</t>
+  </si>
+  <si>
+    <t>13.02.2022 15:09</t>
+  </si>
+  <si>
+    <t>void byDate()</t>
+  </si>
+  <si>
+    <t>13.02.2022 15:10</t>
+  </si>
+  <si>
+    <t>13.02.2022 15:12</t>
+  </si>
+  <si>
+    <t>Sorts the data by date</t>
+  </si>
+  <si>
+    <t>void byDay()</t>
+  </si>
+  <si>
+    <t>Sorts the data by day</t>
+  </si>
+  <si>
+    <t>13.02.2022 15:14</t>
+  </si>
+  <si>
+    <t>13.02.2022 15:16</t>
+  </si>
+  <si>
+    <t>void byMonth()</t>
+  </si>
+  <si>
+    <t>Sorts the data by month</t>
+  </si>
+  <si>
+    <t>Test_09</t>
+  </si>
+  <si>
+    <t>void byYear()</t>
+  </si>
+  <si>
+    <t>13.02.2022 15:18</t>
+  </si>
+  <si>
+    <t>Sorts the data by year</t>
+  </si>
+  <si>
+    <t>Test_10</t>
+  </si>
+  <si>
+    <t>13.02.2022 15:20</t>
+  </si>
+  <si>
+    <t>void byName()</t>
+  </si>
+  <si>
+    <t>Sorts the data by name</t>
+  </si>
+  <si>
+    <t>Test_11</t>
+  </si>
+  <si>
+    <t>Test_12</t>
+  </si>
+  <si>
+    <t>Test_13</t>
+  </si>
+  <si>
+    <t>Test_14</t>
+  </si>
+  <si>
+    <t>Test_15</t>
+  </si>
+  <si>
+    <t>Test_16</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -185,6 +356,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -332,7 +509,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -350,6 +527,20 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -372,25 +563,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="44">
+  <dxfs count="176">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -780,360 +961,6 @@
       </border>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
       <border outline="0">
         <top style="thin">
           <color indexed="64"/>
@@ -1162,6 +989,14 @@
           <color indexed="64"/>
         </bottom>
       </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <border diagonalUp="0" diagonalDown="0" outline="0">
@@ -1176,6 +1011,175 @@
       </border>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
       <border outline="0">
         <top style="thin">
           <color indexed="64"/>
@@ -1184,15 +1188,6 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
@@ -1200,10 +1195,27 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <border diagonalUp="0" diagonalDown="0" outline="0">
@@ -1215,6 +1227,2767 @@
         </right>
         <top/>
         <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
       </border>
     </dxf>
     <dxf>
@@ -1281,60 +4054,240 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B9F71E2B-DA9D-4B54-B8CF-56700481CF89}" name="Table61236" displayName="Table61236" ref="B9:G11" totalsRowShown="0" headerRowDxfId="43" dataDxfId="41" headerRowBorderDxfId="42" tableBorderDxfId="40" totalsRowBorderDxfId="39">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B9F71E2B-DA9D-4B54-B8CF-56700481CF89}" name="Table61236" displayName="Table61236" ref="B9:G11" totalsRowShown="0" headerRowDxfId="175" dataDxfId="173" headerRowBorderDxfId="174" tableBorderDxfId="172" totalsRowBorderDxfId="171">
   <autoFilter ref="B9:G11" xr:uid="{B9F71E2B-DA9D-4B54-B8CF-56700481CF89}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{BD57BFEE-7983-4540-BF08-43D68694351D}" name="Number step" dataDxfId="30"/>
-    <tableColumn id="2" xr3:uid="{9725D7AE-CE45-4E44-B51C-18555BDAA650}" name="Description" dataDxfId="29"/>
-    <tableColumn id="3" xr3:uid="{C5E64368-8DC2-4CEC-8CFB-CEA2C550C4AB}" name="Test Data" dataDxfId="28"/>
-    <tableColumn id="4" xr3:uid="{E3563205-2093-4C29-B589-AEBFF4499DBD}" name="Expectations" dataDxfId="27"/>
-    <tableColumn id="5" xr3:uid="{64061350-3BB4-433A-9388-94A0D456A241}" name="Actual Result" dataDxfId="26"/>
-    <tableColumn id="6" xr3:uid="{BC3CD63A-5C6B-4286-9F5E-9038D9F6ECDA}" name="Status" dataDxfId="25"/>
+    <tableColumn id="1" xr3:uid="{BD57BFEE-7983-4540-BF08-43D68694351D}" name="Number step" dataDxfId="170"/>
+    <tableColumn id="2" xr3:uid="{9725D7AE-CE45-4E44-B51C-18555BDAA650}" name="Description" dataDxfId="169"/>
+    <tableColumn id="3" xr3:uid="{C5E64368-8DC2-4CEC-8CFB-CEA2C550C4AB}" name="Test Data" dataDxfId="168"/>
+    <tableColumn id="4" xr3:uid="{E3563205-2093-4C29-B589-AEBFF4499DBD}" name="Expectations" dataDxfId="167"/>
+    <tableColumn id="5" xr3:uid="{64061350-3BB4-433A-9388-94A0D456A241}" name="Actual Result" dataDxfId="166"/>
+    <tableColumn id="6" xr3:uid="{BC3CD63A-5C6B-4286-9F5E-9038D9F6ECDA}" name="Status" dataDxfId="165"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{829851B6-A067-4032-BF3F-0407683B90D8}" name="Table6123631011131415161718" displayName="Table6123631011131415161718" ref="B110:G111" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9" headerRowBorderDxfId="7" tableBorderDxfId="8" totalsRowBorderDxfId="6">
+  <autoFilter ref="B110:G111" xr:uid="{829851B6-A067-4032-BF3F-0407683B90D8}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{0662B592-0786-463E-8F30-499B0AA9D871}" name="Number step" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{C469F4B9-100E-4D3F-A6D7-D83422FAA646}" name="Description" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{DE4694D2-2A1A-47FD-97A6-A0E3F57BADBF}" name="Test Data" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{7AD8CD5D-8EE7-4E07-BCE7-154CD7DAE7C9}" name="Expectations" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{17841D83-D789-4BE5-94AF-449F1984863A}" name="Actual Result" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{38B6848D-850F-4750-B789-7B7475FF7F6E}" name="Status" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{27D12283-894D-4D26-A211-E0B8838CD628}" name="Table612364" displayName="Table612364" ref="B9:G10" totalsRowShown="0" headerRowDxfId="153" dataDxfId="151" headerRowBorderDxfId="152" tableBorderDxfId="150" totalsRowBorderDxfId="149">
+  <autoFilter ref="B9:G10" xr:uid="{27D12283-894D-4D26-A211-E0B8838CD628}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{3DB24851-BB6B-464F-A32F-BC92B2F894D7}" name="Number step" dataDxfId="148"/>
+    <tableColumn id="2" xr3:uid="{43178B2C-34E5-4FD0-80D4-EBCDD2571296}" name="Description" dataDxfId="147"/>
+    <tableColumn id="3" xr3:uid="{A69FAC80-028C-4625-AF8F-396D21CF8822}" name="Test Data" dataDxfId="146"/>
+    <tableColumn id="4" xr3:uid="{C0EFBA6B-5795-4C03-8F1E-3B3C4449EA83}" name="Expectations" dataDxfId="145"/>
+    <tableColumn id="5" xr3:uid="{9F48AF64-9EC9-4228-9947-A83BF5ABBEFF}" name="Actual Result" dataDxfId="144"/>
+    <tableColumn id="6" xr3:uid="{E003AABE-EA3F-4D09-AA73-E01B99659797}" name="Status" dataDxfId="143"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{8958A56D-A901-447B-891C-ABE52675C5ED}" name="Table6123645" displayName="Table6123645" ref="B20:G21" totalsRowShown="0" headerRowDxfId="142" dataDxfId="140" headerRowBorderDxfId="141" tableBorderDxfId="139" totalsRowBorderDxfId="138">
+  <autoFilter ref="B20:G21" xr:uid="{8958A56D-A901-447B-891C-ABE52675C5ED}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{7610045E-A0EF-48A5-86D1-C57525AF259C}" name="Number step" dataDxfId="137"/>
+    <tableColumn id="2" xr3:uid="{2514890D-7A95-4269-AE53-2C0177E90674}" name="Description" dataDxfId="136"/>
+    <tableColumn id="3" xr3:uid="{1F79A521-910E-4F2E-904F-09DEF3D8DA7E}" name="Test Data" dataDxfId="135"/>
+    <tableColumn id="4" xr3:uid="{BBE97B07-9EDD-4671-BB13-C07C230D37FF}" name="Expectations" dataDxfId="134"/>
+    <tableColumn id="5" xr3:uid="{0556EDEC-FE49-4454-B2D2-F548235A7CFD}" name="Actual Result" dataDxfId="133"/>
+    <tableColumn id="6" xr3:uid="{92C69008-99E4-4E97-B533-3869B55B0725}" name="Status" dataDxfId="132"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{6441B529-30BE-4294-B244-D2F0C6C665F2}" name="Table61236456" displayName="Table61236456" ref="B31:G32" totalsRowShown="0" headerRowDxfId="131" dataDxfId="130" headerRowBorderDxfId="128" tableBorderDxfId="129" totalsRowBorderDxfId="127">
+  <autoFilter ref="B31:G32" xr:uid="{6441B529-30BE-4294-B244-D2F0C6C665F2}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{214CB5CD-7ED8-4D65-8FDF-09ACB6951D7D}" name="Number step" dataDxfId="126"/>
+    <tableColumn id="2" xr3:uid="{2D402286-68B1-4987-8290-D122C57A2F5E}" name="Description" dataDxfId="125"/>
+    <tableColumn id="3" xr3:uid="{03A287C9-F527-4D45-85E5-C9F784E61DBC}" name="Test Data" dataDxfId="124"/>
+    <tableColumn id="4" xr3:uid="{EAEF5150-C649-4EBA-B020-38DB21E0E144}" name="Expectations" dataDxfId="123"/>
+    <tableColumn id="5" xr3:uid="{999A6314-CD7A-47ED-9001-3F881584A339}" name="Actual Result" dataDxfId="122"/>
+    <tableColumn id="6" xr3:uid="{F3DDF7BA-EF65-4C5C-B995-C245D67E8FA8}" name="Status" dataDxfId="121"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{559B8B07-2039-46FC-8743-7D2333AD00A8}" name="Table612364567" displayName="Table612364567" ref="B42:G43" totalsRowShown="0" headerRowDxfId="120" dataDxfId="119" headerRowBorderDxfId="117" tableBorderDxfId="118" totalsRowBorderDxfId="116">
+  <autoFilter ref="B42:G43" xr:uid="{559B8B07-2039-46FC-8743-7D2333AD00A8}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{94733CCE-BE9A-40DF-9667-6E8CFA16A11E}" name="Number step" dataDxfId="115"/>
+    <tableColumn id="2" xr3:uid="{9E5E699D-8FCF-454F-8A5C-7436F172F009}" name="Description" dataDxfId="114"/>
+    <tableColumn id="3" xr3:uid="{99A17105-9B7A-4237-8729-BB3D6B4624AF}" name="Test Data" dataDxfId="113"/>
+    <tableColumn id="4" xr3:uid="{6288989A-4DE7-4721-9B82-85AE3C15EBBB}" name="Expectations" dataDxfId="112"/>
+    <tableColumn id="5" xr3:uid="{C1D7600A-027E-4744-B311-C20FEA1AFE90}" name="Actual Result" dataDxfId="111"/>
+    <tableColumn id="6" xr3:uid="{4DBC90C1-5B24-4EC9-B0FE-94339EEFD82C}" name="Status" dataDxfId="110"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{58D9174B-D795-4FAE-B42D-435F31835565}" name="Table6123645678" displayName="Table6123645678" ref="B53:G55" totalsRowShown="0" headerRowDxfId="109" dataDxfId="108" headerRowBorderDxfId="106" tableBorderDxfId="107" totalsRowBorderDxfId="105">
+  <autoFilter ref="B53:G55" xr:uid="{58D9174B-D795-4FAE-B42D-435F31835565}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{674E88C0-03E7-497E-BE02-646CEFA364A0}" name="Number step" dataDxfId="104"/>
+    <tableColumn id="2" xr3:uid="{6D7AFED2-14AD-4C82-A402-4B1DFBB7BACD}" name="Description" dataDxfId="103"/>
+    <tableColumn id="3" xr3:uid="{918FA830-6450-4772-9B62-D51AF8D796C0}" name="Test Data" dataDxfId="102"/>
+    <tableColumn id="4" xr3:uid="{8ACE435A-EEB0-459C-906B-4B997BFC2258}" name="Expectations" dataDxfId="101"/>
+    <tableColumn id="5" xr3:uid="{BC2CCD36-0303-4F52-B627-CE7B3FF478B7}" name="Actual Result" dataDxfId="100"/>
+    <tableColumn id="6" xr3:uid="{EC7485A8-A4CC-45EA-8731-E68E31DF0D0B}" name="Status" dataDxfId="99"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{2961998B-EFAE-48F9-9266-C0F766E9B155}" name="Table6123645679" displayName="Table6123645679" ref="B65:G67" totalsRowShown="0" headerRowDxfId="98" dataDxfId="88" headerRowBorderDxfId="96" tableBorderDxfId="97" totalsRowBorderDxfId="95">
+  <autoFilter ref="B65:G67" xr:uid="{2961998B-EFAE-48F9-9266-C0F766E9B155}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{E2232600-C0D5-4214-97C7-0BEF7B9B08C2}" name="Number step" dataDxfId="94"/>
+    <tableColumn id="2" xr3:uid="{E12979A7-0A2F-435F-A1E5-496DB29FE622}" name="Description" dataDxfId="93"/>
+    <tableColumn id="3" xr3:uid="{D5E7722A-8A25-4E8C-B59F-A0D6401DD129}" name="Test Data" dataDxfId="92"/>
+    <tableColumn id="4" xr3:uid="{5F74AE05-D1A3-4DC1-A4A3-9A4EDA8BE306}" name="Expectations" dataDxfId="91"/>
+    <tableColumn id="5" xr3:uid="{4AEBA963-64E3-470F-884E-C6F8D6BCBCDD}" name="Actual Result" dataDxfId="90"/>
+    <tableColumn id="6" xr3:uid="{5D380F39-6459-4E2B-B05C-A3569F9B97C8}" name="Status" dataDxfId="89"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{D6F87464-5784-4F49-81E1-BF7B456FC07E}" name="Table612363" displayName="Table612363" ref="B21:G23" totalsRowShown="0" headerRowDxfId="38" dataDxfId="24" headerRowBorderDxfId="37" tableBorderDxfId="36" totalsRowBorderDxfId="35">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{D6F87464-5784-4F49-81E1-BF7B456FC07E}" name="Table612363" displayName="Table612363" ref="B21:G23" totalsRowShown="0" headerRowDxfId="164" dataDxfId="162" headerRowBorderDxfId="163" tableBorderDxfId="161" totalsRowBorderDxfId="160">
   <autoFilter ref="B21:G23" xr:uid="{D6F87464-5784-4F49-81E1-BF7B456FC07E}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{24DE775F-8DA4-45D2-BBEF-D6D3F224111B}" name="Number step" dataDxfId="23"/>
-    <tableColumn id="2" xr3:uid="{B94882E8-FD71-4F17-8E34-C558E4C86B40}" name="Description" dataDxfId="22"/>
-    <tableColumn id="3" xr3:uid="{29C4BA4F-0DF0-4602-B471-0406C4989A78}" name="Test Data" dataDxfId="21"/>
-    <tableColumn id="4" xr3:uid="{2C15706E-BAC2-41A3-9229-FCDF2BF0801D}" name="Expectations" dataDxfId="20"/>
-    <tableColumn id="5" xr3:uid="{69620B87-58D0-47E2-B934-CB83F1952D9E}" name="Actual Result" dataDxfId="19"/>
-    <tableColumn id="6" xr3:uid="{23662DE0-FFA1-48FD-81A4-1E5EABE272E7}" name="Status" dataDxfId="18"/>
+    <tableColumn id="1" xr3:uid="{24DE775F-8DA4-45D2-BBEF-D6D3F224111B}" name="Number step" dataDxfId="159"/>
+    <tableColumn id="2" xr3:uid="{B94882E8-FD71-4F17-8E34-C558E4C86B40}" name="Description" dataDxfId="158"/>
+    <tableColumn id="3" xr3:uid="{29C4BA4F-0DF0-4602-B471-0406C4989A78}" name="Test Data" dataDxfId="157"/>
+    <tableColumn id="4" xr3:uid="{2C15706E-BAC2-41A3-9229-FCDF2BF0801D}" name="Expectations" dataDxfId="156"/>
+    <tableColumn id="5" xr3:uid="{69620B87-58D0-47E2-B934-CB83F1952D9E}" name="Actual Result" dataDxfId="155"/>
+    <tableColumn id="6" xr3:uid="{23662DE0-FFA1-48FD-81A4-1E5EABE272E7}" name="Status" dataDxfId="154"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{27D12283-894D-4D26-A211-E0B8838CD628}" name="Table612364" displayName="Table612364" ref="B9:G10" totalsRowShown="0" headerRowDxfId="34" dataDxfId="17" headerRowBorderDxfId="32" tableBorderDxfId="33" totalsRowBorderDxfId="31">
-  <autoFilter ref="B9:G10" xr:uid="{27D12283-894D-4D26-A211-E0B8838CD628}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{A007369C-5C85-40F6-AC54-693677A37298}" name="Table61236310" displayName="Table61236310" ref="B33:G34" totalsRowShown="0" headerRowDxfId="87" dataDxfId="86" headerRowBorderDxfId="84" tableBorderDxfId="85" totalsRowBorderDxfId="83">
+  <autoFilter ref="B33:G34" xr:uid="{A007369C-5C85-40F6-AC54-693677A37298}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{3DB24851-BB6B-464F-A32F-BC92B2F894D7}" name="Number step" dataDxfId="16"/>
-    <tableColumn id="2" xr3:uid="{43178B2C-34E5-4FD0-80D4-EBCDD2571296}" name="Description" dataDxfId="15"/>
-    <tableColumn id="3" xr3:uid="{A69FAC80-028C-4625-AF8F-396D21CF8822}" name="Test Data" dataDxfId="14"/>
-    <tableColumn id="4" xr3:uid="{C0EFBA6B-5795-4C03-8F1E-3B3C4449EA83}" name="Expectations" dataDxfId="13"/>
-    <tableColumn id="5" xr3:uid="{9F48AF64-9EC9-4228-9947-A83BF5ABBEFF}" name="Actual Result" dataDxfId="12"/>
-    <tableColumn id="6" xr3:uid="{E003AABE-EA3F-4D09-AA73-E01B99659797}" name="Status" dataDxfId="11"/>
+    <tableColumn id="1" xr3:uid="{5517EE87-FB83-4C5A-8621-2F0558DE3236}" name="Number step" dataDxfId="82"/>
+    <tableColumn id="2" xr3:uid="{663DE352-E6A5-45F7-AD60-A93A84D04B83}" name="Description" dataDxfId="81"/>
+    <tableColumn id="3" xr3:uid="{62AAF004-6853-4CCD-97BE-5B1DB62DDA5A}" name="Test Data" dataDxfId="80"/>
+    <tableColumn id="4" xr3:uid="{1D9F12EB-97ED-451F-B383-DE8EC889898C}" name="Expectations" dataDxfId="79"/>
+    <tableColumn id="5" xr3:uid="{05952F68-5733-47C0-A7EB-18B91B231892}" name="Actual Result" dataDxfId="78"/>
+    <tableColumn id="6" xr3:uid="{78781AD7-D155-4759-B751-23B80B9786FB}" name="Status" dataDxfId="77"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{8958A56D-A901-447B-891C-ABE52675C5ED}" name="Table6123645" displayName="Table6123645" ref="B20:G21" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9" headerRowBorderDxfId="7" tableBorderDxfId="8" totalsRowBorderDxfId="6">
-  <autoFilter ref="B20:G21" xr:uid="{8958A56D-A901-447B-891C-ABE52675C5ED}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{92658387-66A5-4B99-B7C0-25E659107F80}" name="Table6123631011" displayName="Table6123631011" ref="B44:G45" totalsRowShown="0" headerRowDxfId="76" dataDxfId="75" headerRowBorderDxfId="73" tableBorderDxfId="74" totalsRowBorderDxfId="72">
+  <autoFilter ref="B44:G45" xr:uid="{92658387-66A5-4B99-B7C0-25E659107F80}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{7610045E-A0EF-48A5-86D1-C57525AF259C}" name="Number step" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{2514890D-7A95-4269-AE53-2C0177E90674}" name="Description" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{1F79A521-910E-4F2E-904F-09DEF3D8DA7E}" name="Test Data" dataDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{BBE97B07-9EDD-4671-BB13-C07C230D37FF}" name="Expectations" dataDxfId="2"/>
-    <tableColumn id="5" xr3:uid="{0556EDEC-FE49-4454-B2D2-F548235A7CFD}" name="Actual Result" dataDxfId="1"/>
-    <tableColumn id="6" xr3:uid="{92C69008-99E4-4E97-B533-3869B55B0725}" name="Status" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{470FE048-CF62-4849-A245-E829CE607E9F}" name="Number step" dataDxfId="71"/>
+    <tableColumn id="2" xr3:uid="{9BA29874-BDA2-4330-929C-6E86E3D17B40}" name="Description" dataDxfId="70"/>
+    <tableColumn id="3" xr3:uid="{0DCF83A3-1F15-4899-9786-7319E48D2808}" name="Test Data" dataDxfId="69"/>
+    <tableColumn id="4" xr3:uid="{8549E554-F570-4C6E-A807-C93E8E3BBA1A}" name="Expectations" dataDxfId="68"/>
+    <tableColumn id="5" xr3:uid="{93025C29-B8F8-4C51-B2A8-E9EE0BF31DA5}" name="Actual Result" dataDxfId="67"/>
+    <tableColumn id="6" xr3:uid="{9B18528A-290D-4786-AB92-1B2431A5078E}" name="Status" dataDxfId="66"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{94358514-9E30-4BCB-A080-F600042F8A0E}" name="Table612363101113" displayName="Table612363101113" ref="B55:G56" totalsRowShown="0" headerRowDxfId="65" dataDxfId="64" headerRowBorderDxfId="62" tableBorderDxfId="63" totalsRowBorderDxfId="61">
+  <autoFilter ref="B55:G56" xr:uid="{94358514-9E30-4BCB-A080-F600042F8A0E}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{EF4E91AC-3A18-4A69-BED2-A35026F46A48}" name="Number step" dataDxfId="60"/>
+    <tableColumn id="2" xr3:uid="{C92D92FB-2922-441C-A515-1BF42DCB56E0}" name="Description" dataDxfId="59"/>
+    <tableColumn id="3" xr3:uid="{2C32C0CD-4730-4F36-921A-A34107326EAA}" name="Test Data" dataDxfId="58"/>
+    <tableColumn id="4" xr3:uid="{581ADFA2-AE4F-4FD0-B8B1-53D0135F2040}" name="Expectations" dataDxfId="57"/>
+    <tableColumn id="5" xr3:uid="{260ABA23-022C-4F26-8A1C-461EC1382B68}" name="Actual Result" dataDxfId="56"/>
+    <tableColumn id="6" xr3:uid="{86418B8B-AF27-4808-909F-C5264466033B}" name="Status" dataDxfId="55"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{2713A4C0-506F-463F-A6F8-1E282A608A47}" name="Table61236310111314" displayName="Table61236310111314" ref="B66:G67" totalsRowShown="0" headerRowDxfId="54" dataDxfId="53" headerRowBorderDxfId="51" tableBorderDxfId="52" totalsRowBorderDxfId="50">
+  <autoFilter ref="B66:G67" xr:uid="{2713A4C0-506F-463F-A6F8-1E282A608A47}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{E371BF52-B4CE-4870-A7E7-50F306044D0D}" name="Number step" dataDxfId="49"/>
+    <tableColumn id="2" xr3:uid="{DB29E355-8A0E-43D8-8589-05ED81155C91}" name="Description" dataDxfId="48"/>
+    <tableColumn id="3" xr3:uid="{D05B6338-C9F9-4A79-9621-AF6DC6628B49}" name="Test Data" dataDxfId="47"/>
+    <tableColumn id="4" xr3:uid="{6D37E279-6531-4C91-97D8-47F7BDA58FC7}" name="Expectations" dataDxfId="46"/>
+    <tableColumn id="5" xr3:uid="{7A1E0F18-C0F6-4B14-9B46-979878D7A4BF}" name="Actual Result" dataDxfId="45"/>
+    <tableColumn id="6" xr3:uid="{9BF94210-6F77-474A-86EA-1AA82848536B}" name="Status" dataDxfId="44"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{8ED2EFE5-DBD3-4391-9E9B-F1F82A8D7F40}" name="Table6123631011131415" displayName="Table6123631011131415" ref="B77:G78" totalsRowShown="0" headerRowDxfId="43" dataDxfId="42" headerRowBorderDxfId="40" tableBorderDxfId="41" totalsRowBorderDxfId="39">
+  <autoFilter ref="B77:G78" xr:uid="{8ED2EFE5-DBD3-4391-9E9B-F1F82A8D7F40}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{56D7C436-CD9B-46B6-BD0F-000254D52011}" name="Number step" dataDxfId="38"/>
+    <tableColumn id="2" xr3:uid="{12CD3285-3D02-4658-9BB7-F66B78CBD77A}" name="Description" dataDxfId="37"/>
+    <tableColumn id="3" xr3:uid="{AFB915B9-5071-4B03-8AE4-DFC8C8D4E1D2}" name="Test Data" dataDxfId="36"/>
+    <tableColumn id="4" xr3:uid="{0F5E9BE0-F0D9-4B11-A484-8235D55867AE}" name="Expectations" dataDxfId="35"/>
+    <tableColumn id="5" xr3:uid="{D5492CEB-EBEB-4D66-9229-99876D9BA43C}" name="Actual Result" dataDxfId="34"/>
+    <tableColumn id="6" xr3:uid="{7564D3B3-FC5D-40E4-913C-5713F1DB783B}" name="Status" dataDxfId="33"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{A83A03AA-186B-4F04-9128-C58A220DE694}" name="Table612363101113141516" displayName="Table612363101113141516" ref="B88:G89" totalsRowShown="0" headerRowDxfId="32" dataDxfId="31" headerRowBorderDxfId="29" tableBorderDxfId="30" totalsRowBorderDxfId="28">
+  <autoFilter ref="B88:G89" xr:uid="{A83A03AA-186B-4F04-9128-C58A220DE694}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{4330FF46-E714-4A85-82EA-C00205EB0D83}" name="Number step" dataDxfId="27"/>
+    <tableColumn id="2" xr3:uid="{1B601D0B-7EC0-44F8-B23B-9DBE31D66B0A}" name="Description" dataDxfId="26"/>
+    <tableColumn id="3" xr3:uid="{1C7EB9B7-A732-4BF5-94F7-521136B30BB0}" name="Test Data" dataDxfId="25"/>
+    <tableColumn id="4" xr3:uid="{0C153BBF-1D0A-420C-835C-3BF42D7E45C4}" name="Expectations" dataDxfId="24"/>
+    <tableColumn id="5" xr3:uid="{86F9CE88-2578-4418-8CC4-F2F79786DD00}" name="Actual Result" dataDxfId="23"/>
+    <tableColumn id="6" xr3:uid="{BB8C8D6A-9401-4F08-A839-AFBE65A8734D}" name="Status" dataDxfId="22"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{BEA76D18-3E98-4FE7-9537-242C4AEC4C87}" name="Table61236310111314151617" displayName="Table61236310111314151617" ref="B99:G100" totalsRowShown="0" headerRowDxfId="21" dataDxfId="20" headerRowBorderDxfId="18" tableBorderDxfId="19" totalsRowBorderDxfId="17">
+  <autoFilter ref="B99:G100" xr:uid="{BEA76D18-3E98-4FE7-9537-242C4AEC4C87}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{91A3272F-4714-4781-9DFB-98112076B179}" name="Number step" dataDxfId="16"/>
+    <tableColumn id="2" xr3:uid="{09C81A56-70AA-4D9E-B0B4-421AD57EC3E6}" name="Description" dataDxfId="15"/>
+    <tableColumn id="3" xr3:uid="{A85FF084-A7DF-49B9-8AF8-37063EF2F6D1}" name="Test Data" dataDxfId="14"/>
+    <tableColumn id="4" xr3:uid="{3F094D7A-B9D6-462C-B73C-8EB1D8127801}" name="Expectations" dataDxfId="13"/>
+    <tableColumn id="5" xr3:uid="{6F084D3C-3949-4DB8-AB85-3CE4000A9D00}" name="Actual Result" dataDxfId="12"/>
+    <tableColumn id="6" xr3:uid="{A15AC0C1-0D31-4B35-9D30-81AE1A222C24}" name="Status" dataDxfId="11"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1637,10 +4590,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60EAFFD2-E5C7-4345-962D-A94815B4D10B}">
-  <dimension ref="B2:G23"/>
+  <dimension ref="B2:G111"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView tabSelected="1" topLeftCell="A90" workbookViewId="0">
+      <selection activeCell="D116" sqref="D116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1654,12 +4607,12 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="12"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="18"/>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B3" s="8" t="s">
@@ -1680,7 +4633,7 @@
         <v>4</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>20</v>
+        <v>66</v>
       </c>
       <c r="D4" s="9" t="s">
         <v>5</v>
@@ -1690,10 +4643,10 @@
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="21" t="s">
         <v>19</v>
       </c>
       <c r="D5" s="9" t="s">
@@ -1704,24 +4657,24 @@
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B6" s="14"/>
-      <c r="C6" s="16"/>
+      <c r="B6" s="20"/>
+      <c r="C6" s="22"/>
       <c r="D6" s="9" t="s">
         <v>8</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>32</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B8" s="17" t="s">
+      <c r="B8" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="18"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="18"/>
-      <c r="G8" s="19"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="15"/>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B9" s="3" t="s">
@@ -1744,20 +4697,20 @@
       </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B10" s="20">
+      <c r="B10" s="10">
         <v>1</v>
       </c>
-      <c r="C10" s="20" t="s">
+      <c r="C10" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="21"/>
-      <c r="E10" s="20" t="s">
+      <c r="D10" s="11"/>
+      <c r="E10" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="F10" s="20" t="s">
+      <c r="F10" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="G10" s="20" t="s">
+      <c r="G10" s="10" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1782,12 +4735,12 @@
       </c>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="12"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="18"/>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B15" s="8" t="s">
@@ -1818,10 +4771,10 @@
       </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B17" s="13" t="s">
+      <c r="B17" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="C17" s="15" t="s">
+      <c r="C17" s="21" t="s">
         <v>27</v>
       </c>
       <c r="D17" s="9" t="s">
@@ -1832,24 +4785,24 @@
       </c>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B18" s="14"/>
-      <c r="C18" s="16"/>
+      <c r="B18" s="20"/>
+      <c r="C18" s="22"/>
       <c r="D18" s="9" t="s">
         <v>8</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B20" s="17" t="s">
+      <c r="B20" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="C20" s="18"/>
-      <c r="D20" s="18"/>
-      <c r="E20" s="18"/>
-      <c r="F20" s="18"/>
-      <c r="G20" s="19"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="15"/>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B21" s="3" t="s">
@@ -1872,20 +4825,20 @@
       </c>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B22" s="20">
+      <c r="B22" s="10">
         <v>1</v>
       </c>
-      <c r="C22" s="20" t="s">
+      <c r="C22" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D22" s="21"/>
-      <c r="E22" s="20" t="s">
+      <c r="D22" s="11"/>
+      <c r="E22" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="F22" s="20" t="s">
+      <c r="F22" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="G22" s="20" t="s">
+      <c r="G22" s="10" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1896,21 +4849,917 @@
       <c r="C23" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="D23" s="21">
+      <c r="D23" s="11">
         <v>10</v>
       </c>
-      <c r="E23" s="20" t="s">
+      <c r="E23" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="F23" s="20" t="s">
+      <c r="F23" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="G23" s="20" t="s">
+      <c r="G23" s="10" t="s">
         <v>18</v>
       </c>
     </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B26" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="C26" s="17"/>
+      <c r="D26" s="17"/>
+      <c r="E26" s="18"/>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B27" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B28" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B29" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C29" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="D29" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B30" s="20"/>
+      <c r="C30" s="22"/>
+      <c r="D30" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B32" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32" s="14"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="14"/>
+      <c r="F32" s="14"/>
+      <c r="G32" s="15"/>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B33" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G33" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B34" s="10">
+        <v>1</v>
+      </c>
+      <c r="C34" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D34" s="11"/>
+      <c r="E34" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="F34" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="G34" s="10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B37" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="C37" s="17"/>
+      <c r="D37" s="17"/>
+      <c r="E37" s="18"/>
+    </row>
+    <row r="38" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B38" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D38" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B39" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D39" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="40" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B40" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C40" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="D40" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B41" s="20"/>
+      <c r="C41" s="22"/>
+      <c r="D41" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="43" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B43" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C43" s="14"/>
+      <c r="D43" s="14"/>
+      <c r="E43" s="14"/>
+      <c r="F43" s="14"/>
+      <c r="G43" s="15"/>
+    </row>
+    <row r="44" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B44" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E44" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F44" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G44" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="45" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B45" s="10">
+        <v>1</v>
+      </c>
+      <c r="C45" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D45" s="11"/>
+      <c r="E45" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="F45" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="G45" s="10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="48" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B48" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="C48" s="17"/>
+      <c r="D48" s="17"/>
+      <c r="E48" s="18"/>
+    </row>
+    <row r="49" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B49" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D49" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B50" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D50" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="51" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B51" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C51" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="D51" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B52" s="20"/>
+      <c r="C52" s="22"/>
+      <c r="D52" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="54" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B54" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C54" s="14"/>
+      <c r="D54" s="14"/>
+      <c r="E54" s="14"/>
+      <c r="F54" s="14"/>
+      <c r="G54" s="15"/>
+    </row>
+    <row r="55" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B55" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D55" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E55" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F55" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G55" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="56" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B56" s="10">
+        <v>1</v>
+      </c>
+      <c r="C56" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D56" s="11"/>
+      <c r="E56" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="F56" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="G56" s="10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="59" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B59" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="C59" s="17"/>
+      <c r="D59" s="17"/>
+      <c r="E59" s="18"/>
+    </row>
+    <row r="60" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B60" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D60" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B61" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D61" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="62" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B62" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C62" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="D62" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B63" s="20"/>
+      <c r="C63" s="22"/>
+      <c r="D63" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="65" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B65" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C65" s="14"/>
+      <c r="D65" s="14"/>
+      <c r="E65" s="14"/>
+      <c r="F65" s="14"/>
+      <c r="G65" s="15"/>
+    </row>
+    <row r="66" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B66" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C66" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D66" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E66" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F66" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G66" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="67" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B67" s="10">
+        <v>1</v>
+      </c>
+      <c r="C67" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D67" s="11"/>
+      <c r="E67" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="F67" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="G67" s="10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="70" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B70" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="C70" s="17"/>
+      <c r="D70" s="17"/>
+      <c r="E70" s="18"/>
+    </row>
+    <row r="71" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B71" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D71" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="72" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B72" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D72" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="E72" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="73" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B73" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C73" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="D73" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="74" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B74" s="20"/>
+      <c r="C74" s="22"/>
+      <c r="D74" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E74" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="76" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B76" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C76" s="14"/>
+      <c r="D76" s="14"/>
+      <c r="E76" s="14"/>
+      <c r="F76" s="14"/>
+      <c r="G76" s="15"/>
+    </row>
+    <row r="77" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B77" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C77" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D77" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E77" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F77" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G77" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="78" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B78" s="10">
+        <v>1</v>
+      </c>
+      <c r="C78" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D78" s="11"/>
+      <c r="E78" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="F78" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="G78" s="10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="81" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B81" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="C81" s="17"/>
+      <c r="D81" s="17"/>
+      <c r="E81" s="18"/>
+    </row>
+    <row r="82" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B82" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D82" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="83" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B83" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D83" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="E83" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="84" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B84" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C84" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="D84" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="85" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B85" s="20"/>
+      <c r="C85" s="22"/>
+      <c r="D85" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E85" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="87" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B87" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C87" s="14"/>
+      <c r="D87" s="14"/>
+      <c r="E87" s="14"/>
+      <c r="F87" s="14"/>
+      <c r="G87" s="15"/>
+    </row>
+    <row r="88" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B88" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C88" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D88" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E88" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F88" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G88" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="89" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B89" s="10">
+        <v>1</v>
+      </c>
+      <c r="C89" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D89" s="11"/>
+      <c r="E89" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="F89" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="G89" s="10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="92" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B92" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="C92" s="17"/>
+      <c r="D92" s="17"/>
+      <c r="E92" s="18"/>
+    </row>
+    <row r="93" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B93" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D93" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E93" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="94" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B94" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D94" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="E94" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="95" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B95" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C95" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="D95" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E95" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="96" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B96" s="20"/>
+      <c r="C96" s="22"/>
+      <c r="D96" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E96" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="98" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B98" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C98" s="14"/>
+      <c r="D98" s="14"/>
+      <c r="E98" s="14"/>
+      <c r="F98" s="14"/>
+      <c r="G98" s="15"/>
+    </row>
+    <row r="99" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B99" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C99" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D99" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E99" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F99" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G99" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="100" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B100" s="10">
+        <v>1</v>
+      </c>
+      <c r="C100" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D100" s="11"/>
+      <c r="E100" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="F100" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="G100" s="10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="103" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B103" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="C103" s="17"/>
+      <c r="D103" s="17"/>
+      <c r="E103" s="18"/>
+    </row>
+    <row r="104" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B104" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D104" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E104" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="105" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B105" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D105" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="E105" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="106" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B106" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C106" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="D106" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E106" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="107" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B107" s="20"/>
+      <c r="C107" s="22"/>
+      <c r="D107" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E107" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="109" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B109" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C109" s="14"/>
+      <c r="D109" s="14"/>
+      <c r="E109" s="14"/>
+      <c r="F109" s="14"/>
+      <c r="G109" s="15"/>
+    </row>
+    <row r="110" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B110" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C110" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D110" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E110" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F110" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G110" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="111" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B111" s="10">
+        <v>1</v>
+      </c>
+      <c r="C111" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D111" s="11"/>
+      <c r="E111" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="F111" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="G111" s="10" t="s">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="40">
+    <mergeCell ref="B103:E103"/>
+    <mergeCell ref="B106:B107"/>
+    <mergeCell ref="C106:C107"/>
+    <mergeCell ref="B109:G109"/>
+    <mergeCell ref="B87:G87"/>
+    <mergeCell ref="B92:E92"/>
+    <mergeCell ref="B95:B96"/>
+    <mergeCell ref="C95:C96"/>
+    <mergeCell ref="B98:G98"/>
+    <mergeCell ref="B73:B74"/>
+    <mergeCell ref="C73:C74"/>
+    <mergeCell ref="B76:G76"/>
+    <mergeCell ref="B81:E81"/>
+    <mergeCell ref="B84:B85"/>
+    <mergeCell ref="C84:C85"/>
+    <mergeCell ref="B59:E59"/>
+    <mergeCell ref="B62:B63"/>
+    <mergeCell ref="C62:C63"/>
+    <mergeCell ref="B65:G65"/>
+    <mergeCell ref="B70:E70"/>
+    <mergeCell ref="B48:E48"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="C51:C52"/>
+    <mergeCell ref="B54:G54"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="B43:G43"/>
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="B32:G32"/>
+    <mergeCell ref="B37:E37"/>
     <mergeCell ref="B20:G20"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="B5:B6"/>
@@ -1921,45 +5770,54 @@
     <mergeCell ref="B8:G8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="2">
-    <tablePart r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="10">
     <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
+    <tablePart r:id="rId5"/>
+    <tablePart r:id="rId6"/>
+    <tablePart r:id="rId7"/>
+    <tablePart r:id="rId8"/>
+    <tablePart r:id="rId9"/>
+    <tablePart r:id="rId10"/>
+    <tablePart r:id="rId11"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90314F01-8834-412D-B03D-FB1C47125FBB}">
-  <dimension ref="B2:G21"/>
+  <dimension ref="B2:G67"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+    <sheetView topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="J62" sqref="J62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="14.109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="42.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="12"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="18"/>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B3" s="8" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>29</v>
+        <v>94</v>
       </c>
       <c r="D3" s="9" t="s">
         <v>2</v>
@@ -1973,21 +5831,21 @@
         <v>4</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D4" s="9" t="s">
         <v>5</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="15" t="s">
-        <v>36</v>
+      <c r="C5" s="21" t="s">
+        <v>35</v>
       </c>
       <c r="D5" s="9" t="s">
         <v>7</v>
@@ -1997,24 +5855,24 @@
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B6" s="14"/>
-      <c r="C6" s="16"/>
+      <c r="B6" s="20"/>
+      <c r="C6" s="22"/>
       <c r="D6" s="9" t="s">
         <v>8</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B8" s="17" t="s">
+      <c r="B8" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="18"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="18"/>
-      <c r="G8" s="19"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="15"/>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B9" s="3" t="s">
@@ -2055,27 +5913,27 @@
       </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B11" s="22"/>
-      <c r="C11" s="22"/>
-      <c r="D11" s="22"/>
-      <c r="E11" s="22"/>
-      <c r="F11" s="22"/>
-      <c r="G11" s="22"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="12"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="18"/>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B14" s="8" t="s">
         <v>1</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>39</v>
+        <v>95</v>
       </c>
       <c r="D14" s="9" t="s">
         <v>2</v>
@@ -2089,21 +5947,21 @@
         <v>4</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D15" s="9" t="s">
         <v>5</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B16" s="13" t="s">
+      <c r="B16" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="C16" s="15" t="s">
-        <v>41</v>
+      <c r="C16" s="21" t="s">
+        <v>46</v>
       </c>
       <c r="D16" s="9" t="s">
         <v>7</v>
@@ -2113,24 +5971,24 @@
       </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B17" s="14"/>
-      <c r="C17" s="16"/>
+      <c r="B17" s="20"/>
+      <c r="C17" s="22"/>
       <c r="D17" s="9" t="s">
         <v>8</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B19" s="17" t="s">
+      <c r="B19" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="C19" s="18"/>
-      <c r="D19" s="18"/>
-      <c r="E19" s="18"/>
-      <c r="F19" s="18"/>
-      <c r="G19" s="19"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="15"/>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B20" s="3" t="s">
@@ -2170,8 +6028,496 @@
         <v>18</v>
       </c>
     </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B24" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="C24" s="17"/>
+      <c r="D24" s="17"/>
+      <c r="E24" s="18"/>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B25" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B26" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B27" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C27" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B28" s="20"/>
+      <c r="C28" s="22"/>
+      <c r="D28" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B30" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C30" s="14"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="14"/>
+      <c r="G30" s="15"/>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B31" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G31" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B32" s="6">
+        <v>1</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D32" s="7"/>
+      <c r="E32" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="F32" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G32" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B35" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="C35" s="17"/>
+      <c r="D35" s="17"/>
+      <c r="E35" s="18"/>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B36" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D36" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B37" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D37" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="38" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B38" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C38" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="D38" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B39" s="20"/>
+      <c r="C39" s="22"/>
+      <c r="D39" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="41" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B41" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C41" s="14"/>
+      <c r="D41" s="14"/>
+      <c r="E41" s="14"/>
+      <c r="F41" s="14"/>
+      <c r="G41" s="15"/>
+    </row>
+    <row r="42" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B42" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F42" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G42" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="43" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B43" s="6">
+        <v>1</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D43" s="7"/>
+      <c r="E43" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="F43" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G43" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="46" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B46" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="C46" s="17"/>
+      <c r="D46" s="17"/>
+      <c r="E46" s="18"/>
+    </row>
+    <row r="47" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B47" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D47" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B48" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D48" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="49" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B49" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C49" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="D49" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B50" s="20"/>
+      <c r="C50" s="22"/>
+      <c r="D50" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="52" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B52" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C52" s="14"/>
+      <c r="D52" s="14"/>
+      <c r="E52" s="14"/>
+      <c r="F52" s="14"/>
+      <c r="G52" s="15"/>
+    </row>
+    <row r="53" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B53" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D53" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E53" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F53" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G53" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="54" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B54" s="10">
+        <v>1</v>
+      </c>
+      <c r="C54" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D54" s="11"/>
+      <c r="E54" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="F54" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="G54" s="10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="55" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B55" s="23">
+        <v>2</v>
+      </c>
+      <c r="C55" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="D55" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="E55" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="F55" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="G55" s="23" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="58" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B58" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="C58" s="17"/>
+      <c r="D58" s="17"/>
+      <c r="E58" s="18"/>
+    </row>
+    <row r="59" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B59" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D59" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B60" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D60" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="61" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B61" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C61" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="D61" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B62" s="20"/>
+      <c r="C62" s="22"/>
+      <c r="D62" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="64" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B64" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C64" s="14"/>
+      <c r="D64" s="14"/>
+      <c r="E64" s="14"/>
+      <c r="F64" s="14"/>
+      <c r="G64" s="15"/>
+    </row>
+    <row r="65" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B65" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C65" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D65" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E65" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F65" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G65" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="66" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B66" s="10">
+        <v>1</v>
+      </c>
+      <c r="C66" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D66" s="11"/>
+      <c r="E66" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="F66" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="G66" s="10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="67" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B67" s="6">
+        <v>2</v>
+      </c>
+      <c r="C67" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D67" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="E67" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="F67" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G67" s="10" t="s">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="24">
+    <mergeCell ref="B52:G52"/>
+    <mergeCell ref="B58:E58"/>
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="C61:C62"/>
+    <mergeCell ref="B64:G64"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="C38:C39"/>
+    <mergeCell ref="B41:G41"/>
+    <mergeCell ref="B46:E46"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="C49:C50"/>
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="B30:G30"/>
+    <mergeCell ref="B35:E35"/>
     <mergeCell ref="B19:G19"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="B5:B6"/>
@@ -2182,9 +6528,13 @@
     <mergeCell ref="C16:C17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="2">
+  <tableParts count="6">
     <tablePart r:id="rId1"/>
     <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
+    <tablePart r:id="rId5"/>
+    <tablePart r:id="rId6"/>
   </tableParts>
 </worksheet>
 </file>